--- a/20240928/20240928_StocksDataGrowthScreen.xlsx
+++ b/20240928/20240928_StocksDataGrowthScreen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\Stock-Evaluation-Models\20240928\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80537F0C-E767-4657-BEB8-22A653DF6960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77152ADA-B270-4206-BC6D-901EE154A585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5C63D4E0-A81F-44DF-B204-706DBD5915EF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5C63D4E0-A81F-44DF-B204-706DBD5915EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -27661,7 +27661,7 @@
   <dimension ref="A1:K164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
